--- a/raw/result/全國投開票所一覽表/總統副總統選舉/總統-A05-4-候選人得票數一覽表-各投開票所(苗栗縣).xlsx
+++ b/raw/result/全國投開票所一覽表/總統副總統選舉/總統-A05-4-候選人得票數一覽表-各投開票所(苗栗縣).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="1206">
   <si>
     <t>第16任總統副總統選舉候選人在苗栗縣各投開票所得票數一覽表</t>
   </si>
@@ -2049,208 +2049,211 @@
     <t>0259</t>
   </si>
   <si>
+    <t>71.38</t>
+  </si>
+  <si>
+    <t>和平里</t>
+  </si>
+  <si>
+    <t>0260</t>
+  </si>
+  <si>
+    <t>77.96</t>
+  </si>
+  <si>
+    <t>山下里</t>
+  </si>
+  <si>
+    <t>0261</t>
+  </si>
+  <si>
+    <t>76.42</t>
+  </si>
+  <si>
+    <t>0262</t>
+  </si>
+  <si>
+    <t>75.57</t>
+  </si>
+  <si>
+    <t>0263</t>
+  </si>
+  <si>
+    <t>後庄里</t>
+  </si>
+  <si>
+    <t>0264</t>
+  </si>
+  <si>
+    <t>76.18</t>
+  </si>
+  <si>
+    <t>0265</t>
+  </si>
+  <si>
+    <t>76.31</t>
+  </si>
+  <si>
+    <t>0266</t>
+  </si>
+  <si>
+    <t>76.36</t>
+  </si>
+  <si>
+    <t>0267</t>
+  </si>
+  <si>
+    <t>合興里</t>
+  </si>
+  <si>
+    <t>0268</t>
+  </si>
+  <si>
+    <t>72.29</t>
+  </si>
+  <si>
+    <t>0269</t>
+  </si>
+  <si>
+    <t>74.48</t>
+  </si>
+  <si>
+    <t>文化里</t>
+  </si>
+  <si>
+    <t>0270</t>
+  </si>
+  <si>
+    <t>74.41</t>
+  </si>
+  <si>
+    <t>0271</t>
+  </si>
+  <si>
+    <t>77.56</t>
+  </si>
+  <si>
+    <t>0272</t>
+  </si>
+  <si>
+    <t>76.84</t>
+  </si>
+  <si>
+    <t>中興里</t>
+  </si>
+  <si>
+    <t>0273</t>
+  </si>
+  <si>
+    <t>0274</t>
+  </si>
+  <si>
+    <t>蟠桃里</t>
+  </si>
+  <si>
+    <t>0275</t>
+  </si>
+  <si>
+    <t>76.41</t>
+  </si>
+  <si>
+    <t>0276</t>
+  </si>
+  <si>
+    <t>0277</t>
+  </si>
+  <si>
+    <t>66.98</t>
+  </si>
+  <si>
+    <t>建國里</t>
+  </si>
+  <si>
+    <t>0278</t>
+  </si>
+  <si>
+    <t>72.96</t>
+  </si>
+  <si>
+    <t>0279</t>
+  </si>
+  <si>
+    <t>76.65</t>
+  </si>
+  <si>
+    <t>0280</t>
+  </si>
+  <si>
+    <t>74.16</t>
+  </si>
+  <si>
+    <t>成功里</t>
+  </si>
+  <si>
+    <t>0281</t>
+  </si>
+  <si>
+    <t>73.98</t>
+  </si>
+  <si>
+    <t>0282</t>
+  </si>
+  <si>
+    <t>75.71</t>
+  </si>
+  <si>
+    <t>0283</t>
+  </si>
+  <si>
+    <t>70.51</t>
+  </si>
+  <si>
+    <t>民族里</t>
+  </si>
+  <si>
+    <t>0284</t>
+  </si>
+  <si>
+    <t>71.14</t>
+  </si>
+  <si>
+    <t>0285</t>
+  </si>
+  <si>
+    <t>74.01</t>
+  </si>
+  <si>
+    <t>民權里</t>
+  </si>
+  <si>
+    <t>0286</t>
+  </si>
+  <si>
+    <t>72.18</t>
+  </si>
+  <si>
+    <t>0287</t>
+  </si>
+  <si>
+    <t>東庄里</t>
+  </si>
+  <si>
+    <t>0288</t>
+  </si>
+  <si>
+    <t>0289</t>
+  </si>
+  <si>
+    <t>71.94</t>
+  </si>
+  <si>
+    <t>0290</t>
+  </si>
+  <si>
+    <t>0291</t>
+  </si>
+  <si>
     <t>71.31</t>
-  </si>
-  <si>
-    <t>和平里</t>
-  </si>
-  <si>
-    <t>0260</t>
-  </si>
-  <si>
-    <t>77.96</t>
-  </si>
-  <si>
-    <t>山下里</t>
-  </si>
-  <si>
-    <t>0261</t>
-  </si>
-  <si>
-    <t>76.42</t>
-  </si>
-  <si>
-    <t>0262</t>
-  </si>
-  <si>
-    <t>75.57</t>
-  </si>
-  <si>
-    <t>0263</t>
-  </si>
-  <si>
-    <t>後庄里</t>
-  </si>
-  <si>
-    <t>0264</t>
-  </si>
-  <si>
-    <t>76.18</t>
-  </si>
-  <si>
-    <t>0265</t>
-  </si>
-  <si>
-    <t>76.31</t>
-  </si>
-  <si>
-    <t>0266</t>
-  </si>
-  <si>
-    <t>76.36</t>
-  </si>
-  <si>
-    <t>0267</t>
-  </si>
-  <si>
-    <t>合興里</t>
-  </si>
-  <si>
-    <t>0268</t>
-  </si>
-  <si>
-    <t>72.29</t>
-  </si>
-  <si>
-    <t>0269</t>
-  </si>
-  <si>
-    <t>74.48</t>
-  </si>
-  <si>
-    <t>文化里</t>
-  </si>
-  <si>
-    <t>0270</t>
-  </si>
-  <si>
-    <t>74.41</t>
-  </si>
-  <si>
-    <t>0271</t>
-  </si>
-  <si>
-    <t>77.56</t>
-  </si>
-  <si>
-    <t>0272</t>
-  </si>
-  <si>
-    <t>76.84</t>
-  </si>
-  <si>
-    <t>中興里</t>
-  </si>
-  <si>
-    <t>0273</t>
-  </si>
-  <si>
-    <t>0274</t>
-  </si>
-  <si>
-    <t>蟠桃里</t>
-  </si>
-  <si>
-    <t>0275</t>
-  </si>
-  <si>
-    <t>76.41</t>
-  </si>
-  <si>
-    <t>0276</t>
-  </si>
-  <si>
-    <t>0277</t>
-  </si>
-  <si>
-    <t>66.98</t>
-  </si>
-  <si>
-    <t>建國里</t>
-  </si>
-  <si>
-    <t>0278</t>
-  </si>
-  <si>
-    <t>72.96</t>
-  </si>
-  <si>
-    <t>0279</t>
-  </si>
-  <si>
-    <t>76.65</t>
-  </si>
-  <si>
-    <t>0280</t>
-  </si>
-  <si>
-    <t>74.16</t>
-  </si>
-  <si>
-    <t>成功里</t>
-  </si>
-  <si>
-    <t>0281</t>
-  </si>
-  <si>
-    <t>73.98</t>
-  </si>
-  <si>
-    <t>0282</t>
-  </si>
-  <si>
-    <t>75.71</t>
-  </si>
-  <si>
-    <t>0283</t>
-  </si>
-  <si>
-    <t>70.51</t>
-  </si>
-  <si>
-    <t>民族里</t>
-  </si>
-  <si>
-    <t>0284</t>
-  </si>
-  <si>
-    <t>71.14</t>
-  </si>
-  <si>
-    <t>0285</t>
-  </si>
-  <si>
-    <t>74.01</t>
-  </si>
-  <si>
-    <t>民權里</t>
-  </si>
-  <si>
-    <t>0286</t>
-  </si>
-  <si>
-    <t>72.18</t>
-  </si>
-  <si>
-    <t>0287</t>
-  </si>
-  <si>
-    <t>東庄里</t>
-  </si>
-  <si>
-    <t>0288</t>
-  </si>
-  <si>
-    <t>0289</t>
-  </si>
-  <si>
-    <t>71.94</t>
-  </si>
-  <si>
-    <t>0290</t>
-  </si>
-  <si>
-    <t>0291</t>
   </si>
   <si>
     <t>田寮里</t>
@@ -3871,13 +3874,13 @@
         <v>318665.0</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2325.0</v>
+        <v>2326.0</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>320990.0</v>
+        <v>320991.0</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="K6" s="4" t="n">
         <v>320995.0</v>
@@ -14299,13 +14302,13 @@
         <v>61331.0</v>
       </c>
       <c r="H243" s="4" t="n">
-        <v>415.0</v>
+        <v>416.0</v>
       </c>
       <c r="I243" s="4" t="n">
-        <v>61746.0</v>
+        <v>61747.0</v>
       </c>
       <c r="J243" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K243" s="4" t="n">
         <v>61747.0</v>
@@ -15663,13 +15666,13 @@
         <v>908.0</v>
       </c>
       <c r="H274" s="4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I274" s="4" t="n">
-        <v>912.0</v>
+        <v>913.0</v>
       </c>
       <c r="J274" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K274" s="4" t="n">
         <v>913.0</v>
@@ -17089,7 +17092,7 @@
         <v>1241.0</v>
       </c>
       <c r="N306" s="3" t="s">
-        <v>674</v>
+        <v>742</v>
       </c>
     </row>
     <row r="307">
@@ -17097,10 +17100,10 @@
         <v>17</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D307" s="4" t="n">
         <v>323.0</v>
@@ -17141,10 +17144,10 @@
         <v>17</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D308" s="4" t="n">
         <v>344.0</v>
@@ -17177,7 +17180,7 @@
         <v>1337.0</v>
       </c>
       <c r="N308" s="3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="309">
@@ -17185,10 +17188,10 @@
         <v>17</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D309" s="4" t="n">
         <v>360.0</v>
@@ -17229,10 +17232,10 @@
         <v>17</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D310" s="4" t="n">
         <v>271.0</v>
@@ -17265,7 +17268,7 @@
         <v>1201.0</v>
       </c>
       <c r="N310" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="311">
@@ -17273,10 +17276,10 @@
         <v>17</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D311" s="4" t="n">
         <v>296.0</v>
@@ -17317,10 +17320,10 @@
         <v>17</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D312" s="4" t="n">
         <v>252.0</v>
@@ -17361,10 +17364,10 @@
         <v>17</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D313" s="4" t="n">
         <v>266.0</v>
@@ -17405,10 +17408,10 @@
         <v>17</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D314" s="4" t="n">
         <v>174.0</v>
@@ -17441,7 +17444,7 @@
         <v>849.0</v>
       </c>
       <c r="N314" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="315">
@@ -17449,10 +17452,10 @@
         <v>17</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D315" s="4" t="n">
         <v>265.0</v>
@@ -17485,7 +17488,7 @@
         <v>1221.0</v>
       </c>
       <c r="N315" s="3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="316">
@@ -17493,10 +17496,10 @@
         <v>17</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D316" s="4" t="n">
         <v>234.0</v>
@@ -17529,7 +17532,7 @@
         <v>1181.0</v>
       </c>
       <c r="N316" s="3" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="317">
@@ -17537,10 +17540,10 @@
         <v>17</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D317" s="4" t="n">
         <v>211.0</v>
@@ -17573,7 +17576,7 @@
         <v>1017.0</v>
       </c>
       <c r="N317" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="318">
@@ -17581,10 +17584,10 @@
         <v>17</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D318" s="4" t="n">
         <v>240.0</v>
@@ -17617,12 +17620,12 @@
         <v>1077.0</v>
       </c>
       <c r="N318" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>17</v>
@@ -17661,7 +17664,7 @@
         <v>5318.0</v>
       </c>
       <c r="N319" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="320">
@@ -17669,10 +17672,10 @@
         <v>17</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D320" s="4" t="n">
         <v>177.0</v>
@@ -17705,7 +17708,7 @@
         <v>892.0</v>
       </c>
       <c r="N320" s="3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="321">
@@ -17713,10 +17716,10 @@
         <v>17</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D321" s="4" t="n">
         <v>220.0</v>
@@ -17757,10 +17760,10 @@
         <v>17</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D322" s="4" t="n">
         <v>115.0</v>
@@ -17793,7 +17796,7 @@
         <v>599.0</v>
       </c>
       <c r="N322" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="323">
@@ -17801,10 +17804,10 @@
         <v>17</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D323" s="4" t="n">
         <v>125.0</v>
@@ -17837,7 +17840,7 @@
         <v>769.0</v>
       </c>
       <c r="N323" s="3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="324">
@@ -17845,10 +17848,10 @@
         <v>17</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D324" s="4" t="n">
         <v>22.0</v>
@@ -17889,10 +17892,10 @@
         <v>17</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D325" s="4" t="n">
         <v>107.0</v>
@@ -17925,7 +17928,7 @@
         <v>493.0</v>
       </c>
       <c r="N325" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="326">
@@ -17933,10 +17936,10 @@
         <v>17</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D326" s="4" t="n">
         <v>73.0</v>
@@ -17969,7 +17972,7 @@
         <v>506.0</v>
       </c>
       <c r="N326" s="3" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="327">
@@ -17977,10 +17980,10 @@
         <v>17</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D327" s="4" t="n">
         <v>49.0</v>
@@ -18021,10 +18024,10 @@
         <v>17</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D328" s="4" t="n">
         <v>50.0</v>
@@ -18057,12 +18060,12 @@
         <v>349.0</v>
       </c>
       <c r="N328" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>17</v>
@@ -18101,7 +18104,7 @@
         <v>7836.0</v>
       </c>
       <c r="N329" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="330">
@@ -18109,10 +18112,10 @@
         <v>17</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D330" s="4" t="n">
         <v>153.0</v>
@@ -18145,7 +18148,7 @@
         <v>1049.0</v>
       </c>
       <c r="N330" s="3" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="331">
@@ -18153,10 +18156,10 @@
         <v>17</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D331" s="4" t="n">
         <v>105.0</v>
@@ -18189,7 +18192,7 @@
         <v>593.0</v>
       </c>
       <c r="N331" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="332">
@@ -18197,10 +18200,10 @@
         <v>17</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D332" s="4" t="n">
         <v>209.0</v>
@@ -18233,7 +18236,7 @@
         <v>1192.0</v>
       </c>
       <c r="N332" s="3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="333">
@@ -18241,10 +18244,10 @@
         <v>17</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D333" s="4" t="n">
         <v>100.0</v>
@@ -18277,7 +18280,7 @@
         <v>733.0</v>
       </c>
       <c r="N333" s="3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="334">
@@ -18285,10 +18288,10 @@
         <v>17</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D334" s="4" t="n">
         <v>116.0</v>
@@ -18321,7 +18324,7 @@
         <v>720.0</v>
       </c>
       <c r="N334" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="335">
@@ -18329,10 +18332,10 @@
         <v>17</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D335" s="4" t="n">
         <v>137.0</v>
@@ -18365,7 +18368,7 @@
         <v>986.0</v>
       </c>
       <c r="N335" s="3" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="336">
@@ -18373,10 +18376,10 @@
         <v>17</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D336" s="4" t="n">
         <v>182.0</v>
@@ -18409,7 +18412,7 @@
         <v>927.0</v>
       </c>
       <c r="N336" s="3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="337">
@@ -18417,10 +18420,10 @@
         <v>17</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D337" s="4" t="n">
         <v>107.0</v>
@@ -18453,7 +18456,7 @@
         <v>786.0</v>
       </c>
       <c r="N337" s="3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="338">
@@ -18461,10 +18464,10 @@
         <v>17</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D338" s="4" t="n">
         <v>126.0</v>
@@ -18497,12 +18500,12 @@
         <v>850.0</v>
       </c>
       <c r="N338" s="3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>17</v>
@@ -18541,7 +18544,7 @@
         <v>71981.0</v>
       </c>
       <c r="N339" s="3" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="340">
@@ -18549,10 +18552,10 @@
         <v>17</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D340" s="4" t="n">
         <v>241.0</v>
@@ -18585,7 +18588,7 @@
         <v>1129.0</v>
       </c>
       <c r="N340" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="341">
@@ -18593,10 +18596,10 @@
         <v>17</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D341" s="4" t="n">
         <v>190.0</v>
@@ -18637,10 +18640,10 @@
         <v>17</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D342" s="4" t="n">
         <v>224.0</v>
@@ -18673,7 +18676,7 @@
         <v>1043.0</v>
       </c>
       <c r="N342" s="3" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="343">
@@ -18681,10 +18684,10 @@
         <v>17</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D343" s="4" t="n">
         <v>195.0</v>
@@ -18717,7 +18720,7 @@
         <v>1042.0</v>
       </c>
       <c r="N343" s="3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="344">
@@ -18725,10 +18728,10 @@
         <v>17</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D344" s="4" t="n">
         <v>207.0</v>
@@ -18761,7 +18764,7 @@
         <v>1040.0</v>
       </c>
       <c r="N344" s="3" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="345">
@@ -18769,10 +18772,10 @@
         <v>17</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D345" s="4" t="n">
         <v>232.0</v>
@@ -18805,7 +18808,7 @@
         <v>1151.0</v>
       </c>
       <c r="N345" s="3" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="346">
@@ -18813,10 +18816,10 @@
         <v>17</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D346" s="4" t="n">
         <v>255.0</v>
@@ -18849,7 +18852,7 @@
         <v>1214.0</v>
       </c>
       <c r="N346" s="3" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="347">
@@ -18857,10 +18860,10 @@
         <v>17</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D347" s="4" t="n">
         <v>176.0</v>
@@ -18901,10 +18904,10 @@
         <v>17</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D348" s="4" t="n">
         <v>240.0</v>
@@ -18937,7 +18940,7 @@
         <v>1109.0</v>
       </c>
       <c r="N348" s="3" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="349">
@@ -18945,10 +18948,10 @@
         <v>17</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D349" s="4" t="n">
         <v>210.0</v>
@@ -18981,7 +18984,7 @@
         <v>1037.0</v>
       </c>
       <c r="N349" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="350">
@@ -18989,10 +18992,10 @@
         <v>17</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D350" s="4" t="n">
         <v>209.0</v>
@@ -19033,10 +19036,10 @@
         <v>17</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D351" s="4" t="n">
         <v>223.0</v>
@@ -19077,10 +19080,10 @@
         <v>17</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D352" s="4" t="n">
         <v>270.0</v>
@@ -19121,10 +19124,10 @@
         <v>17</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D353" s="4" t="n">
         <v>154.0</v>
@@ -19157,7 +19160,7 @@
         <v>755.0</v>
       </c>
       <c r="N353" s="3" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="354">
@@ -19165,10 +19168,10 @@
         <v>17</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D354" s="4" t="n">
         <v>189.0</v>
@@ -19201,7 +19204,7 @@
         <v>1013.0</v>
       </c>
       <c r="N354" s="3" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="355">
@@ -19209,10 +19212,10 @@
         <v>17</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D355" s="4" t="n">
         <v>193.0</v>
@@ -19245,7 +19248,7 @@
         <v>1006.0</v>
       </c>
       <c r="N355" s="3" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="356">
@@ -19253,10 +19256,10 @@
         <v>17</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D356" s="4" t="n">
         <v>249.0</v>
@@ -19289,7 +19292,7 @@
         <v>1112.0</v>
       </c>
       <c r="N356" s="3" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="357">
@@ -19297,10 +19300,10 @@
         <v>17</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D357" s="4" t="n">
         <v>138.0</v>
@@ -19333,7 +19336,7 @@
         <v>784.0</v>
       </c>
       <c r="N357" s="3" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="358">
@@ -19341,10 +19344,10 @@
         <v>17</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D358" s="4" t="n">
         <v>134.0</v>
@@ -19377,7 +19380,7 @@
         <v>779.0</v>
       </c>
       <c r="N358" s="3" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="359">
@@ -19385,10 +19388,10 @@
         <v>17</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D359" s="4" t="n">
         <v>91.0</v>
@@ -19429,10 +19432,10 @@
         <v>17</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D360" s="4" t="n">
         <v>286.0</v>
@@ -19465,7 +19468,7 @@
         <v>1298.0</v>
       </c>
       <c r="N360" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="361">
@@ -19473,10 +19476,10 @@
         <v>17</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D361" s="4" t="n">
         <v>258.0</v>
@@ -19509,7 +19512,7 @@
         <v>1201.0</v>
       </c>
       <c r="N361" s="3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="362">
@@ -19517,10 +19520,10 @@
         <v>17</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D362" s="4" t="n">
         <v>244.0</v>
@@ -19553,7 +19556,7 @@
         <v>1177.0</v>
       </c>
       <c r="N362" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="363">
@@ -19561,10 +19564,10 @@
         <v>17</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D363" s="4" t="n">
         <v>227.0</v>
@@ -19597,7 +19600,7 @@
         <v>1143.0</v>
       </c>
       <c r="N363" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="364">
@@ -19605,10 +19608,10 @@
         <v>17</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D364" s="4" t="n">
         <v>251.0</v>
@@ -19641,7 +19644,7 @@
         <v>1089.0</v>
       </c>
       <c r="N364" s="3" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="365">
@@ -19649,10 +19652,10 @@
         <v>17</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D365" s="4" t="n">
         <v>146.0</v>
@@ -19685,7 +19688,7 @@
         <v>745.0</v>
       </c>
       <c r="N365" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="366">
@@ -19693,10 +19696,10 @@
         <v>17</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D366" s="4" t="n">
         <v>157.0</v>
@@ -19729,7 +19732,7 @@
         <v>718.0</v>
       </c>
       <c r="N366" s="3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="367">
@@ -19737,10 +19740,10 @@
         <v>17</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D367" s="4" t="n">
         <v>217.0</v>
@@ -19773,7 +19776,7 @@
         <v>958.0</v>
       </c>
       <c r="N367" s="3" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="368">
@@ -19781,10 +19784,10 @@
         <v>17</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D368" s="4" t="n">
         <v>214.0</v>
@@ -19817,7 +19820,7 @@
         <v>1061.0</v>
       </c>
       <c r="N368" s="3" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="369">
@@ -19825,10 +19828,10 @@
         <v>17</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D369" s="4" t="n">
         <v>181.0</v>
@@ -19869,10 +19872,10 @@
         <v>17</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D370" s="4" t="n">
         <v>93.0</v>
@@ -19905,7 +19908,7 @@
         <v>542.0</v>
       </c>
       <c r="N370" s="3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="371">
@@ -19913,10 +19916,10 @@
         <v>17</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D371" s="4" t="n">
         <v>188.0</v>
@@ -19949,7 +19952,7 @@
         <v>936.0</v>
       </c>
       <c r="N371" s="3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="372">
@@ -19957,10 +19960,10 @@
         <v>17</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D372" s="4" t="n">
         <v>196.0</v>
@@ -19993,7 +19996,7 @@
         <v>1105.0</v>
       </c>
       <c r="N372" s="3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="373">
@@ -20001,10 +20004,10 @@
         <v>17</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D373" s="4" t="n">
         <v>339.0</v>
@@ -20037,7 +20040,7 @@
         <v>1348.0</v>
       </c>
       <c r="N373" s="3" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="374">
@@ -20045,10 +20048,10 @@
         <v>17</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D374" s="4" t="n">
         <v>251.0</v>
@@ -20081,7 +20084,7 @@
         <v>1226.0</v>
       </c>
       <c r="N374" s="3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="375">
@@ -20089,10 +20092,10 @@
         <v>17</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D375" s="4" t="n">
         <v>285.0</v>
@@ -20125,7 +20128,7 @@
         <v>1240.0</v>
       </c>
       <c r="N375" s="3" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="376">
@@ -20133,10 +20136,10 @@
         <v>17</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D376" s="4" t="n">
         <v>251.0</v>
@@ -20169,7 +20172,7 @@
         <v>1156.0</v>
       </c>
       <c r="N376" s="3" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="377">
@@ -20177,10 +20180,10 @@
         <v>17</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D377" s="4" t="n">
         <v>240.0</v>
@@ -20213,7 +20216,7 @@
         <v>1016.0</v>
       </c>
       <c r="N377" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="378">
@@ -20221,10 +20224,10 @@
         <v>17</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D378" s="4" t="n">
         <v>262.0</v>
@@ -20265,10 +20268,10 @@
         <v>17</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D379" s="4" t="n">
         <v>207.0</v>
@@ -20301,7 +20304,7 @@
         <v>1059.0</v>
       </c>
       <c r="N379" s="3" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="380">
@@ -20309,10 +20312,10 @@
         <v>17</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D380" s="4" t="n">
         <v>231.0</v>
@@ -20345,7 +20348,7 @@
         <v>1073.0</v>
       </c>
       <c r="N380" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="381">
@@ -20353,10 +20356,10 @@
         <v>17</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D381" s="4" t="n">
         <v>207.0</v>
@@ -20389,7 +20392,7 @@
         <v>953.0</v>
       </c>
       <c r="N381" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="382">
@@ -20397,10 +20400,10 @@
         <v>17</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D382" s="4" t="n">
         <v>268.0</v>
@@ -20433,7 +20436,7 @@
         <v>999.0</v>
       </c>
       <c r="N382" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="383">
@@ -20441,10 +20444,10 @@
         <v>17</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D383" s="4" t="n">
         <v>332.0</v>
@@ -20477,7 +20480,7 @@
         <v>1329.0</v>
       </c>
       <c r="N383" s="3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="384">
@@ -20485,10 +20488,10 @@
         <v>17</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D384" s="4" t="n">
         <v>248.0</v>
@@ -20521,7 +20524,7 @@
         <v>1055.0</v>
       </c>
       <c r="N384" s="3" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="385">
@@ -20529,10 +20532,10 @@
         <v>17</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D385" s="4" t="n">
         <v>280.0</v>
@@ -20573,10 +20576,10 @@
         <v>17</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D386" s="4" t="n">
         <v>214.0</v>
@@ -20609,7 +20612,7 @@
         <v>974.0</v>
       </c>
       <c r="N386" s="3" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="387">
@@ -20617,10 +20620,10 @@
         <v>17</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D387" s="4" t="n">
         <v>168.0</v>
@@ -20653,7 +20656,7 @@
         <v>802.0</v>
       </c>
       <c r="N387" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="388">
@@ -20661,10 +20664,10 @@
         <v>17</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D388" s="4" t="n">
         <v>207.0</v>
@@ -20697,7 +20700,7 @@
         <v>919.0</v>
       </c>
       <c r="N388" s="3" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="389">
@@ -20705,10 +20708,10 @@
         <v>17</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D389" s="4" t="n">
         <v>219.0</v>
@@ -20749,10 +20752,10 @@
         <v>17</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D390" s="4" t="n">
         <v>186.0</v>
@@ -20785,7 +20788,7 @@
         <v>975.0</v>
       </c>
       <c r="N390" s="3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="391">
@@ -20793,10 +20796,10 @@
         <v>17</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D391" s="4" t="n">
         <v>219.0</v>
@@ -20829,7 +20832,7 @@
         <v>1025.0</v>
       </c>
       <c r="N391" s="3" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="392">
@@ -20837,10 +20840,10 @@
         <v>17</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D392" s="4" t="n">
         <v>204.0</v>
@@ -20873,7 +20876,7 @@
         <v>982.0</v>
       </c>
       <c r="N392" s="3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="393">
@@ -20881,10 +20884,10 @@
         <v>17</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D393" s="4" t="n">
         <v>198.0</v>
@@ -20917,7 +20920,7 @@
         <v>1055.0</v>
       </c>
       <c r="N393" s="3" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="394">
@@ -20925,10 +20928,10 @@
         <v>17</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D394" s="4" t="n">
         <v>291.0</v>
@@ -20961,7 +20964,7 @@
         <v>1278.0</v>
       </c>
       <c r="N394" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="395">
@@ -20969,10 +20972,10 @@
         <v>17</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D395" s="4" t="n">
         <v>306.0</v>
@@ -21005,7 +21008,7 @@
         <v>1331.0</v>
       </c>
       <c r="N395" s="3" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="396">
@@ -21013,10 +21016,10 @@
         <v>17</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D396" s="4" t="n">
         <v>319.0</v>
@@ -21049,7 +21052,7 @@
         <v>1594.0</v>
       </c>
       <c r="N396" s="3" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="397">
@@ -21057,10 +21060,10 @@
         <v>17</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D397" s="4" t="n">
         <v>262.0</v>
@@ -21093,7 +21096,7 @@
         <v>1131.0</v>
       </c>
       <c r="N397" s="3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="398">
@@ -21101,10 +21104,10 @@
         <v>17</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D398" s="4" t="n">
         <v>289.0</v>
@@ -21137,7 +21140,7 @@
         <v>1059.0</v>
       </c>
       <c r="N398" s="3" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="399">
@@ -21145,10 +21148,10 @@
         <v>17</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D399" s="4" t="n">
         <v>254.0</v>
@@ -21181,7 +21184,7 @@
         <v>1034.0</v>
       </c>
       <c r="N399" s="3" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="400">
@@ -21189,10 +21192,10 @@
         <v>17</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D400" s="4" t="n">
         <v>287.0</v>
@@ -21225,7 +21228,7 @@
         <v>1048.0</v>
       </c>
       <c r="N400" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="401">
@@ -21233,10 +21236,10 @@
         <v>17</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D401" s="4" t="n">
         <v>340.0</v>
@@ -21269,7 +21272,7 @@
         <v>1258.0</v>
       </c>
       <c r="N401" s="3" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="402">
@@ -21277,10 +21280,10 @@
         <v>17</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D402" s="4" t="n">
         <v>369.0</v>
@@ -21321,10 +21324,10 @@
         <v>17</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D403" s="4" t="n">
         <v>185.0</v>
@@ -21357,7 +21360,7 @@
         <v>881.0</v>
       </c>
       <c r="N403" s="3" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="404">
@@ -21365,10 +21368,10 @@
         <v>17</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D404" s="4" t="n">
         <v>225.0</v>
@@ -21412,7 +21415,7 @@
         <v>537</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D405" s="4" t="n">
         <v>212.0</v>
@@ -21456,7 +21459,7 @@
         <v>537</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D406" s="4" t="n">
         <v>164.0</v>
@@ -21489,7 +21492,7 @@
         <v>833.0</v>
       </c>
       <c r="N406" s="3" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="407">
@@ -21497,10 +21500,10 @@
         <v>17</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D407" s="4" t="n">
         <v>146.0</v>
@@ -21533,7 +21536,7 @@
         <v>758.0</v>
       </c>
       <c r="N407" s="3" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="408">
@@ -21541,10 +21544,10 @@
         <v>17</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D408" s="4" t="n">
         <v>174.0</v>
@@ -21577,12 +21580,12 @@
         <v>841.0</v>
       </c>
       <c r="N408" s="3" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>17</v>
@@ -21621,7 +21624,7 @@
         <v>8734.0</v>
       </c>
       <c r="N409" s="3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="410">
@@ -21629,10 +21632,10 @@
         <v>17</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D410" s="4" t="n">
         <v>253.0</v>
@@ -21665,7 +21668,7 @@
         <v>1347.0</v>
       </c>
       <c r="N410" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="411">
@@ -21673,10 +21676,10 @@
         <v>17</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D411" s="4" t="n">
         <v>196.0</v>
@@ -21717,10 +21720,10 @@
         <v>17</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D412" s="4" t="n">
         <v>162.0</v>
@@ -21761,10 +21764,10 @@
         <v>17</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D413" s="4" t="n">
         <v>207.0</v>
@@ -21797,7 +21800,7 @@
         <v>839.0</v>
       </c>
       <c r="N413" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="414">
@@ -21805,10 +21808,10 @@
         <v>17</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D414" s="4" t="n">
         <v>107.0</v>
@@ -21841,7 +21844,7 @@
         <v>641.0</v>
       </c>
       <c r="N414" s="3" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="415">
@@ -21849,10 +21852,10 @@
         <v>17</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D415" s="4" t="n">
         <v>145.0</v>
@@ -21893,10 +21896,10 @@
         <v>17</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D416" s="4" t="n">
         <v>45.0</v>
@@ -21929,7 +21932,7 @@
         <v>371.0</v>
       </c>
       <c r="N416" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="417">
@@ -21937,10 +21940,10 @@
         <v>17</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D417" s="4" t="n">
         <v>148.0</v>
@@ -21973,7 +21976,7 @@
         <v>772.0</v>
       </c>
       <c r="N417" s="3" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="418">
@@ -21981,10 +21984,10 @@
         <v>17</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D418" s="4" t="n">
         <v>203.0</v>
@@ -22017,7 +22020,7 @@
         <v>934.0</v>
       </c>
       <c r="N418" s="3" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="419">
@@ -22025,10 +22028,10 @@
         <v>17</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D419" s="4" t="n">
         <v>144.0</v>
@@ -22069,10 +22072,10 @@
         <v>17</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D420" s="4" t="n">
         <v>32.0</v>
@@ -22105,7 +22108,7 @@
         <v>189.0</v>
       </c>
       <c r="N420" s="3" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="421">
@@ -22113,10 +22116,10 @@
         <v>17</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D421" s="4" t="n">
         <v>34.0</v>
@@ -22149,12 +22152,12 @@
         <v>288.0</v>
       </c>
       <c r="N421" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>17</v>
@@ -22193,7 +22196,7 @@
         <v>3770.0</v>
       </c>
       <c r="N422" s="3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="423">
@@ -22201,10 +22204,10 @@
         <v>17</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D423" s="4" t="n">
         <v>52.0</v>
@@ -22237,7 +22240,7 @@
         <v>319.0</v>
       </c>
       <c r="N423" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="424">
@@ -22245,10 +22248,10 @@
         <v>17</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D424" s="4" t="n">
         <v>54.0</v>
@@ -22281,7 +22284,7 @@
         <v>505.0</v>
       </c>
       <c r="N424" s="3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="425">
@@ -22289,10 +22292,10 @@
         <v>17</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D425" s="4" t="n">
         <v>140.0</v>
@@ -22333,10 +22336,10 @@
         <v>17</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D426" s="4" t="n">
         <v>68.0</v>
@@ -22369,7 +22372,7 @@
         <v>536.0</v>
       </c>
       <c r="N426" s="3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="427">
@@ -22377,10 +22380,10 @@
         <v>17</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D427" s="4" t="n">
         <v>81.0</v>
@@ -22421,10 +22424,10 @@
         <v>17</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D428" s="4" t="n">
         <v>45.0</v>
@@ -22457,7 +22460,7 @@
         <v>313.0</v>
       </c>
       <c r="N428" s="3" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="429">
@@ -22465,10 +22468,10 @@
         <v>17</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D429" s="4" t="n">
         <v>100.0</v>
@@ -22501,12 +22504,12 @@
         <v>650.0</v>
       </c>
       <c r="N429" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>17</v>
@@ -22545,7 +22548,7 @@
         <v>26808.0</v>
       </c>
       <c r="N430" s="3" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="431">
@@ -22553,10 +22556,10 @@
         <v>17</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D431" s="4" t="n">
         <v>144.0</v>
@@ -22589,7 +22592,7 @@
         <v>714.0</v>
       </c>
       <c r="N431" s="3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="432">
@@ -22597,10 +22600,10 @@
         <v>17</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D432" s="4" t="n">
         <v>157.0</v>
@@ -22641,10 +22644,10 @@
         <v>17</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D433" s="4" t="n">
         <v>264.0</v>
@@ -22685,10 +22688,10 @@
         <v>17</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D434" s="4" t="n">
         <v>261.0</v>
@@ -22721,7 +22724,7 @@
         <v>1228.0</v>
       </c>
       <c r="N434" s="3" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="435">
@@ -22729,10 +22732,10 @@
         <v>17</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D435" s="4" t="n">
         <v>259.0</v>
@@ -22765,7 +22768,7 @@
         <v>1130.0</v>
       </c>
       <c r="N435" s="3" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="436">
@@ -22773,10 +22776,10 @@
         <v>17</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D436" s="4" t="n">
         <v>231.0</v>
@@ -22809,7 +22812,7 @@
         <v>1136.0</v>
       </c>
       <c r="N436" s="3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="437">
@@ -22817,10 +22820,10 @@
         <v>17</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D437" s="4" t="n">
         <v>240.0</v>
@@ -22853,7 +22856,7 @@
         <v>1065.0</v>
       </c>
       <c r="N437" s="3" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="438">
@@ -22861,10 +22864,10 @@
         <v>17</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D438" s="4" t="n">
         <v>241.0</v>
@@ -22897,7 +22900,7 @@
         <v>1129.0</v>
       </c>
       <c r="N438" s="3" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="439">
@@ -22905,10 +22908,10 @@
         <v>17</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D439" s="4" t="n">
         <v>211.0</v>
@@ -22941,7 +22944,7 @@
         <v>1044.0</v>
       </c>
       <c r="N439" s="3" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="440">
@@ -22949,10 +22952,10 @@
         <v>17</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D440" s="4" t="n">
         <v>311.0</v>
@@ -22985,7 +22988,7 @@
         <v>1294.0</v>
       </c>
       <c r="N440" s="3" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="441">
@@ -22993,10 +22996,10 @@
         <v>17</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D441" s="4" t="n">
         <v>205.0</v>
@@ -23037,10 +23040,10 @@
         <v>17</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D442" s="4" t="n">
         <v>170.0</v>
@@ -23073,7 +23076,7 @@
         <v>888.0</v>
       </c>
       <c r="N442" s="3" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="443">
@@ -23081,10 +23084,10 @@
         <v>17</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D443" s="4" t="n">
         <v>166.0</v>
@@ -23117,7 +23120,7 @@
         <v>948.0</v>
       </c>
       <c r="N443" s="3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="444">
@@ -23125,10 +23128,10 @@
         <v>17</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D444" s="4" t="n">
         <v>47.0</v>
@@ -23161,7 +23164,7 @@
         <v>318.0</v>
       </c>
       <c r="N444" s="3" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="445">
@@ -23169,10 +23172,10 @@
         <v>17</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D445" s="4" t="n">
         <v>187.0</v>
@@ -23205,7 +23208,7 @@
         <v>774.0</v>
       </c>
       <c r="N445" s="3" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="446">
@@ -23213,10 +23216,10 @@
         <v>17</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D446" s="4" t="n">
         <v>276.0</v>
@@ -23249,7 +23252,7 @@
         <v>1177.0</v>
       </c>
       <c r="N446" s="3" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="447">
@@ -23257,10 +23260,10 @@
         <v>17</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D447" s="4" t="n">
         <v>126.0</v>
@@ -23293,7 +23296,7 @@
         <v>636.0</v>
       </c>
       <c r="N447" s="3" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="448">
@@ -23301,10 +23304,10 @@
         <v>17</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D448" s="4" t="n">
         <v>147.0</v>
@@ -23337,7 +23340,7 @@
         <v>720.0</v>
       </c>
       <c r="N448" s="3" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="449">
@@ -23345,10 +23348,10 @@
         <v>17</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D449" s="4" t="n">
         <v>44.0</v>
@@ -23381,7 +23384,7 @@
         <v>258.0</v>
       </c>
       <c r="N449" s="3" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="450">
@@ -23389,10 +23392,10 @@
         <v>17</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D450" s="4" t="n">
         <v>284.0</v>
@@ -23425,7 +23428,7 @@
         <v>1251.0</v>
       </c>
       <c r="N450" s="3" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="451">
@@ -23433,10 +23436,10 @@
         <v>17</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D451" s="4" t="n">
         <v>204.0</v>
@@ -23469,7 +23472,7 @@
         <v>896.0</v>
       </c>
       <c r="N451" s="3" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="452">
@@ -23477,10 +23480,10 @@
         <v>17</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D452" s="4" t="n">
         <v>149.0</v>
@@ -23513,7 +23516,7 @@
         <v>692.0</v>
       </c>
       <c r="N452" s="3" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="453">
@@ -23521,10 +23524,10 @@
         <v>17</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D453" s="4" t="n">
         <v>150.0</v>
@@ -23557,7 +23560,7 @@
         <v>699.0</v>
       </c>
       <c r="N453" s="3" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="454">
@@ -23565,10 +23568,10 @@
         <v>17</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D454" s="4" t="n">
         <v>190.0</v>
@@ -23609,10 +23612,10 @@
         <v>17</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D455" s="4" t="n">
         <v>169.0</v>
@@ -23645,7 +23648,7 @@
         <v>687.0</v>
       </c>
       <c r="N455" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="456">
@@ -23653,10 +23656,10 @@
         <v>17</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D456" s="4" t="n">
         <v>140.0</v>
@@ -23697,10 +23700,10 @@
         <v>17</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D457" s="4" t="n">
         <v>154.0</v>
@@ -23733,7 +23736,7 @@
         <v>722.0</v>
       </c>
       <c r="N457" s="3" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="458">
@@ -23741,10 +23744,10 @@
         <v>17</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D458" s="4" t="n">
         <v>137.0</v>
@@ -23777,7 +23780,7 @@
         <v>660.0</v>
       </c>
       <c r="N458" s="3" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="459">
@@ -23785,10 +23788,10 @@
         <v>17</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D459" s="4" t="n">
         <v>124.0</v>
@@ -23821,7 +23824,7 @@
         <v>691.0</v>
       </c>
       <c r="N459" s="3" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="460">
@@ -23829,10 +23832,10 @@
         <v>17</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D460" s="4" t="n">
         <v>214.0</v>
@@ -23865,7 +23868,7 @@
         <v>1232.0</v>
       </c>
       <c r="N460" s="3" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="461">
@@ -23873,10 +23876,10 @@
         <v>17</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D461" s="4" t="n">
         <v>44.0</v>
@@ -23909,7 +23912,7 @@
         <v>212.0</v>
       </c>
       <c r="N461" s="3" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="462">
@@ -23917,10 +23920,10 @@
         <v>17</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D462" s="4" t="n">
         <v>107.0</v>
@@ -23953,12 +23956,12 @@
         <v>310.0</v>
       </c>
       <c r="N462" s="3" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>17</v>
@@ -24005,10 +24008,10 @@
         <v>17</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D464" s="4" t="n">
         <v>105.0</v>
@@ -24041,7 +24044,7 @@
         <v>700.0</v>
       </c>
       <c r="N464" s="3" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="465">
@@ -24049,10 +24052,10 @@
         <v>17</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D465" s="4" t="n">
         <v>139.0</v>
@@ -24093,10 +24096,10 @@
         <v>17</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D466" s="4" t="n">
         <v>81.0</v>
@@ -24129,7 +24132,7 @@
         <v>513.0</v>
       </c>
       <c r="N466" s="3" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="467">
@@ -24137,10 +24140,10 @@
         <v>17</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D467" s="4" t="n">
         <v>193.0</v>
@@ -24181,10 +24184,10 @@
         <v>17</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D468" s="4" t="n">
         <v>130.0</v>
@@ -24225,10 +24228,10 @@
         <v>17</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D469" s="4" t="n">
         <v>185.0</v>
@@ -24261,7 +24264,7 @@
         <v>816.0</v>
       </c>
       <c r="N469" s="3" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="470">
@@ -24269,10 +24272,10 @@
         <v>17</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D470" s="4" t="n">
         <v>188.0</v>
@@ -24305,7 +24308,7 @@
         <v>1232.0</v>
       </c>
       <c r="N470" s="3" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="471">
@@ -24313,10 +24316,10 @@
         <v>17</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D471" s="4" t="n">
         <v>36.0</v>
@@ -24349,7 +24352,7 @@
         <v>491.0</v>
       </c>
       <c r="N471" s="3" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="472">
@@ -24357,10 +24360,10 @@
         <v>17</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D472" s="4" t="n">
         <v>80.0</v>
@@ -24393,7 +24396,7 @@
         <v>566.0</v>
       </c>
       <c r="N472" s="3" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="473">
@@ -24401,10 +24404,10 @@
         <v>17</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D473" s="4" t="n">
         <v>80.0</v>
@@ -24437,7 +24440,7 @@
         <v>687.0</v>
       </c>
       <c r="N473" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="474">
@@ -24445,10 +24448,10 @@
         <v>17</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D474" s="4" t="n">
         <v>67.0</v>
@@ -24481,7 +24484,7 @@
         <v>461.0</v>
       </c>
       <c r="N474" s="3" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="475">
@@ -24489,10 +24492,10 @@
         <v>17</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D475" s="4" t="n">
         <v>62.0</v>
@@ -24525,7 +24528,7 @@
         <v>562.0</v>
       </c>
       <c r="N475" s="3" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="476">
@@ -24533,10 +24536,10 @@
         <v>17</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D476" s="4" t="n">
         <v>117.0</v>
@@ -24569,7 +24572,7 @@
         <v>807.0</v>
       </c>
       <c r="N476" s="3" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="477">
@@ -24577,10 +24580,10 @@
         <v>17</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D477" s="4" t="n">
         <v>143.0</v>
@@ -24613,7 +24616,7 @@
         <v>925.0</v>
       </c>
       <c r="N477" s="3" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="478">
@@ -24621,10 +24624,10 @@
         <v>17</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D478" s="4" t="n">
         <v>188.0</v>
@@ -24657,12 +24660,12 @@
         <v>943.0</v>
       </c>
       <c r="N478" s="3" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>17</v>
@@ -24701,7 +24704,7 @@
         <v>4825.0</v>
       </c>
       <c r="N479" s="3" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="480">
@@ -24709,10 +24712,10 @@
         <v>17</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D480" s="4" t="n">
         <v>41.0</v>
@@ -24745,7 +24748,7 @@
         <v>324.0</v>
       </c>
       <c r="N480" s="3" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="481">
@@ -24756,7 +24759,7 @@
         <v>195</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D481" s="4" t="n">
         <v>77.0</v>
@@ -24800,7 +24803,7 @@
         <v>195</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D482" s="4" t="n">
         <v>80.0</v>
@@ -24833,7 +24836,7 @@
         <v>589.0</v>
       </c>
       <c r="N482" s="3" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="483">
@@ -24841,10 +24844,10 @@
         <v>17</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D483" s="4" t="n">
         <v>87.0</v>
@@ -24877,7 +24880,7 @@
         <v>524.0</v>
       </c>
       <c r="N483" s="3" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="484">
@@ -24885,10 +24888,10 @@
         <v>17</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D484" s="4" t="n">
         <v>49.0</v>
@@ -24921,7 +24924,7 @@
         <v>278.0</v>
       </c>
       <c r="N484" s="3" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="485">
@@ -24929,10 +24932,10 @@
         <v>17</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D485" s="4" t="n">
         <v>68.0</v>
@@ -24965,7 +24968,7 @@
         <v>472.0</v>
       </c>
       <c r="N485" s="3" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="486">
@@ -24973,10 +24976,10 @@
         <v>17</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D486" s="4" t="n">
         <v>87.0</v>
@@ -25009,7 +25012,7 @@
         <v>508.0</v>
       </c>
       <c r="N486" s="3" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="487">
@@ -25017,10 +25020,10 @@
         <v>17</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D487" s="4" t="n">
         <v>56.0</v>
@@ -25061,10 +25064,10 @@
         <v>17</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D488" s="4" t="n">
         <v>80.0</v>
@@ -25097,7 +25100,7 @@
         <v>635.0</v>
       </c>
       <c r="N488" s="3" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="489">
@@ -25105,10 +25108,10 @@
         <v>17</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D489" s="4" t="n">
         <v>90.0</v>
@@ -25146,7 +25149,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>17</v>
@@ -25185,7 +25188,7 @@
         <v>13414.0</v>
       </c>
       <c r="N490" s="3" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="491">
@@ -25193,10 +25196,10 @@
         <v>17</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D491" s="4" t="n">
         <v>134.0</v>
@@ -25229,7 +25232,7 @@
         <v>869.0</v>
       </c>
       <c r="N491" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="492">
@@ -25237,10 +25240,10 @@
         <v>17</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D492" s="4" t="n">
         <v>126.0</v>
@@ -25281,10 +25284,10 @@
         <v>17</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D493" s="4" t="n">
         <v>188.0</v>
@@ -25317,7 +25320,7 @@
         <v>992.0</v>
       </c>
       <c r="N493" s="3" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="494">
@@ -25325,10 +25328,10 @@
         <v>17</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D494" s="4" t="n">
         <v>103.0</v>
@@ -25361,7 +25364,7 @@
         <v>650.0</v>
       </c>
       <c r="N494" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="495">
@@ -25369,10 +25372,10 @@
         <v>17</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D495" s="4" t="n">
         <v>111.0</v>
@@ -25413,10 +25416,10 @@
         <v>17</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D496" s="4" t="n">
         <v>122.0</v>
@@ -25449,7 +25452,7 @@
         <v>688.0</v>
       </c>
       <c r="N496" s="3" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="497">
@@ -25457,10 +25460,10 @@
         <v>17</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D497" s="4" t="n">
         <v>132.0</v>
@@ -25493,7 +25496,7 @@
         <v>864.0</v>
       </c>
       <c r="N497" s="3" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="498">
@@ -25501,10 +25504,10 @@
         <v>17</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D498" s="4" t="n">
         <v>116.0</v>
@@ -25537,7 +25540,7 @@
         <v>740.0</v>
       </c>
       <c r="N498" s="3" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="499">
@@ -25545,10 +25548,10 @@
         <v>17</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D499" s="4" t="n">
         <v>129.0</v>
@@ -25589,10 +25592,10 @@
         <v>17</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D500" s="4" t="n">
         <v>146.0</v>
@@ -25625,7 +25628,7 @@
         <v>800.0</v>
       </c>
       <c r="N500" s="3" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="501">
@@ -25633,10 +25636,10 @@
         <v>17</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D501" s="4" t="n">
         <v>118.0</v>
@@ -25669,7 +25672,7 @@
         <v>743.0</v>
       </c>
       <c r="N501" s="3" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="502">
@@ -25677,10 +25680,10 @@
         <v>17</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D502" s="4" t="n">
         <v>49.0</v>
@@ -25713,7 +25716,7 @@
         <v>352.0</v>
       </c>
       <c r="N502" s="3" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="503">
@@ -25721,10 +25724,10 @@
         <v>17</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D503" s="4" t="n">
         <v>91.0</v>
@@ -25757,7 +25760,7 @@
         <v>569.0</v>
       </c>
       <c r="N503" s="3" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="504">
@@ -25765,10 +25768,10 @@
         <v>17</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D504" s="4" t="n">
         <v>130.0</v>
@@ -25801,7 +25804,7 @@
         <v>701.0</v>
       </c>
       <c r="N504" s="3" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="505">
@@ -25809,10 +25812,10 @@
         <v>17</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D505" s="4" t="n">
         <v>111.0</v>
@@ -25853,10 +25856,10 @@
         <v>17</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D506" s="4" t="n">
         <v>168.0</v>
@@ -25889,7 +25892,7 @@
         <v>1024.0</v>
       </c>
       <c r="N506" s="3" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="507">
@@ -25897,10 +25900,10 @@
         <v>17</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D507" s="4" t="n">
         <v>99.0</v>
@@ -25941,10 +25944,10 @@
         <v>17</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D508" s="4" t="n">
         <v>155.0</v>
@@ -25977,7 +25980,7 @@
         <v>911.0</v>
       </c>
       <c r="N508" s="3" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
   </sheetData>
